--- a/raw_data/cups_db.xlsx
+++ b/raw_data/cups_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duke\Lectures\02_IDS_706_DATA_ENGINEERING\group_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alisa/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97756C35-2001-4E42-A737-3EED363DF720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF5A84C-4031-594D-9BC2-1DF91A60BDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{55055081-DE6E-4B45-951F-D4AB37DE9E6F}"/>
+    <workbookView xWindow="5340" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{55055081-DE6E-4B45-951F-D4AB37DE9E6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Borrow</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
   <si>
     <t>cup_id</t>
   </si>
@@ -57,6 +54,24 @@
   </si>
   <si>
     <t>BC10</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Borrowed</t>
+  </si>
+  <si>
+    <t>Sold</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>SB3</t>
+  </si>
+  <si>
+    <t>Out</t>
   </si>
 </sst>
 </file>
@@ -412,45 +427,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B617DB90-6D3E-464D-87D2-F756CC04DABA}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
     <col min="5" max="8" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>989965</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>989966</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>989967</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>989968</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>989969</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>989970</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>989971</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>989972</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>989973</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>989974</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>989975</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>989976</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>989977</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>989978</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>989979</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
